--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>Неликвид млн тенге</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Клиентов на артикул</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -568,6 +573,67 @@
       </c>
       <c r="Q2" t="n">
         <v>38.8933960833999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.698713096139288</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>310</v>
+      </c>
+      <c r="C3" t="n">
+        <v>379</v>
+      </c>
+      <c r="D3" t="n">
+        <v>176</v>
+      </c>
+      <c r="E3" t="n">
+        <v>194</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94</v>
+      </c>
+      <c r="G3" t="n">
+        <v>164</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>347</v>
+      </c>
+      <c r="J3" t="n">
+        <v>46</v>
+      </c>
+      <c r="K3" t="n">
+        <v>630</v>
+      </c>
+      <c r="L3" t="n">
+        <v>36</v>
+      </c>
+      <c r="M3" t="n">
+        <v>190</v>
+      </c>
+      <c r="N3" t="n">
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>29.64464742837728</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16.58644215340549</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>33.39701376923547</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.695981804397271</v>
       </c>
     </row>
   </sheetData>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,64 @@
         <v>1.695981804397271</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>302</v>
+      </c>
+      <c r="C4" t="n">
+        <v>384</v>
+      </c>
+      <c r="D4" t="n">
+        <v>167</v>
+      </c>
+      <c r="E4" t="n">
+        <v>171</v>
+      </c>
+      <c r="F4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G4" t="n">
+        <v>127</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>315</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>614</v>
+      </c>
+      <c r="L4" t="n">
+        <v>42</v>
+      </c>
+      <c r="M4" t="n">
+        <v>166</v>
+      </c>
+      <c r="N4" t="n">
+        <v>71</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29.18535187350701</v>
+      </c>
+      <c r="P4" t="n">
+        <v>16.73992080776867</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>23.42383362522917</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.743795036028823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +694,122 @@
         <v>1.743795036028823</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>307</v>
+      </c>
+      <c r="C5" t="n">
+        <v>394</v>
+      </c>
+      <c r="D5" t="n">
+        <v>179</v>
+      </c>
+      <c r="E5" t="n">
+        <v>177</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96</v>
+      </c>
+      <c r="G5" t="n">
+        <v>131</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>306</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>639</v>
+      </c>
+      <c r="L5" t="n">
+        <v>48</v>
+      </c>
+      <c r="M5" t="n">
+        <v>172</v>
+      </c>
+      <c r="N5" t="n">
+        <v>76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>28.85245301202182</v>
+      </c>
+      <c r="P5" t="n">
+        <v>14.53208691596594</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>27.1886778346834</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.713063763608087</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>309</v>
+      </c>
+      <c r="C6" t="n">
+        <v>396</v>
+      </c>
+      <c r="D6" t="n">
+        <v>176</v>
+      </c>
+      <c r="E6" t="n">
+        <v>182</v>
+      </c>
+      <c r="F6" t="n">
+        <v>95</v>
+      </c>
+      <c r="G6" t="n">
+        <v>128</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>307</v>
+      </c>
+      <c r="J6" t="n">
+        <v>49</v>
+      </c>
+      <c r="K6" t="n">
+        <v>633</v>
+      </c>
+      <c r="L6" t="n">
+        <v>48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>178</v>
+      </c>
+      <c r="N6" t="n">
+        <v>73</v>
+      </c>
+      <c r="O6" t="n">
+        <v>29.0367126592808</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11.50675562402174</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>27.99503789871275</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.704192546583851</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,6 +810,122 @@
         <v>1.704192546583851</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>316</v>
+      </c>
+      <c r="C7" t="n">
+        <v>393</v>
+      </c>
+      <c r="D7" t="n">
+        <v>167</v>
+      </c>
+      <c r="E7" t="n">
+        <v>179</v>
+      </c>
+      <c r="F7" t="n">
+        <v>92</v>
+      </c>
+      <c r="G7" t="n">
+        <v>131</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>311</v>
+      </c>
+      <c r="J7" t="n">
+        <v>52</v>
+      </c>
+      <c r="K7" t="n">
+        <v>627</v>
+      </c>
+      <c r="L7" t="n">
+        <v>41</v>
+      </c>
+      <c r="M7" t="n">
+        <v>171</v>
+      </c>
+      <c r="N7" t="n">
+        <v>78</v>
+      </c>
+      <c r="O7" t="n">
+        <v>28.2605369150573</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12.16217681207067</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>29.74418856104236</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>318</v>
+      </c>
+      <c r="C8" t="n">
+        <v>394</v>
+      </c>
+      <c r="D8" t="n">
+        <v>166</v>
+      </c>
+      <c r="E8" t="n">
+        <v>171</v>
+      </c>
+      <c r="F8" t="n">
+        <v>92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>129</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>326</v>
+      </c>
+      <c r="J8" t="n">
+        <v>44</v>
+      </c>
+      <c r="K8" t="n">
+        <v>616</v>
+      </c>
+      <c r="L8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M8" t="n">
+        <v>167</v>
+      </c>
+      <c r="N8" t="n">
+        <v>79</v>
+      </c>
+      <c r="O8" t="n">
+        <v>28.57576171155635</v>
+      </c>
+      <c r="P8" t="n">
+        <v>13.32131875525789</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>27.99019452423705</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.69811320754717</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,16 @@
           <t>Клиентов на артикул</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Эффективность запасов</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Эффективность ассортимента</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +587,12 @@
       <c r="R2" t="n">
         <v>1.698713096139288</v>
       </c>
+      <c r="S2" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10.42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -635,6 +651,12 @@
       <c r="R3" t="n">
         <v>1.695981804397271</v>
       </c>
+      <c r="S3" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -693,6 +715,12 @@
       <c r="R4" t="n">
         <v>1.743795036028823</v>
       </c>
+      <c r="S4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10.85</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -751,6 +779,12 @@
       <c r="R5" t="n">
         <v>1.713063763608087</v>
       </c>
+      <c r="S5" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10.43</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -809,6 +843,12 @@
       <c r="R6" t="n">
         <v>1.704192546583851</v>
       </c>
+      <c r="S6" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10.57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -867,6 +907,12 @@
       <c r="R7" t="n">
         <v>1.7</v>
       </c>
+      <c r="S7" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10.67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -924,6 +970,12 @@
       </c>
       <c r="R8" t="n">
         <v>1.69811320754717</v>
+      </c>
+      <c r="S8" t="n">
+        <v>14.75113122171946</v>
+      </c>
+      <c r="T8" t="n">
+        <v>10.70811831196468</v>
       </c>
     </row>
   </sheetData>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,6 +978,70 @@
         <v>10.70811831196468</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>316</v>
+      </c>
+      <c r="C9" t="n">
+        <v>388</v>
+      </c>
+      <c r="D9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E9" t="n">
+        <v>182</v>
+      </c>
+      <c r="F9" t="n">
+        <v>93</v>
+      </c>
+      <c r="G9" t="n">
+        <v>127</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>319</v>
+      </c>
+      <c r="J9" t="n">
+        <v>42</v>
+      </c>
+      <c r="K9" t="n">
+        <v>614</v>
+      </c>
+      <c r="L9" t="n">
+        <v>39</v>
+      </c>
+      <c r="M9" t="n">
+        <v>178</v>
+      </c>
+      <c r="N9" t="n">
+        <v>81</v>
+      </c>
+      <c r="O9" t="n">
+        <v>28.77096265470214</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12.73550210378327</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>27.73498556998854</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.705420267085624</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14.79452054794521</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10.53738636380868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,6 +1042,70 @@
         <v>10.53738636380868</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>316</v>
+      </c>
+      <c r="C10" t="n">
+        <v>390</v>
+      </c>
+      <c r="D10" t="n">
+        <v>178</v>
+      </c>
+      <c r="E10" t="n">
+        <v>176</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>133</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>303</v>
+      </c>
+      <c r="J10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K10" t="n">
+        <v>660</v>
+      </c>
+      <c r="L10" t="n">
+        <v>36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>168</v>
+      </c>
+      <c r="N10" t="n">
+        <v>73</v>
+      </c>
+      <c r="O10" t="n">
+        <v>29.1897266795237</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.233149582233562</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>40.61990912667767</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.69922480620155</v>
+      </c>
+      <c r="S10" t="n">
+        <v>14.17112299465241</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9.928796682832253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,61 +1049,317 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C10" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D10" t="n">
         <v>178</v>
       </c>
       <c r="E10" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F10" t="n">
         <v>95</v>
       </c>
       <c r="G10" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J10" t="n">
         <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="L10" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M10" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N10" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O10" t="n">
-        <v>29.1897266795237</v>
+        <v>29.25582534300643</v>
       </c>
       <c r="P10" t="n">
-        <v>9.233149582233562</v>
+        <v>9.24869022852767</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.61990912667767</v>
+        <v>37.30275294972039</v>
       </c>
       <c r="R10" t="n">
         <v>1.69922480620155</v>
       </c>
       <c r="S10" t="n">
-        <v>14.17112299465241</v>
+        <v>14.69534050179212</v>
       </c>
       <c r="T10" t="n">
-        <v>9.928796682832253</v>
+        <v>9.570151154525202</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>312</v>
+      </c>
+      <c r="C11" t="n">
+        <v>397</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165</v>
+      </c>
+      <c r="E11" t="n">
+        <v>182</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>135</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>330</v>
+      </c>
+      <c r="J11" t="n">
+        <v>53</v>
+      </c>
+      <c r="K11" t="n">
+        <v>623</v>
+      </c>
+      <c r="L11" t="n">
+        <v>36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>181</v>
+      </c>
+      <c r="N11" t="n">
+        <v>70</v>
+      </c>
+      <c r="O11" t="n">
+        <v>29.10776942207191</v>
+      </c>
+      <c r="P11" t="n">
+        <v>11.12490187940278</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>34.45608325703883</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.746326372776489</v>
+      </c>
+      <c r="S11" t="n">
+        <v>14.29856115107914</v>
+      </c>
+      <c r="T11" t="n">
+        <v>11.39366416201927</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>318</v>
+      </c>
+      <c r="C12" t="n">
+        <v>398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>155</v>
+      </c>
+      <c r="E12" t="n">
+        <v>184</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95</v>
+      </c>
+      <c r="G12" t="n">
+        <v>139</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>338</v>
+      </c>
+      <c r="J12" t="n">
+        <v>55</v>
+      </c>
+      <c r="K12" t="n">
+        <v>611</v>
+      </c>
+      <c r="L12" t="n">
+        <v>41</v>
+      </c>
+      <c r="M12" t="n">
+        <v>183</v>
+      </c>
+      <c r="N12" t="n">
+        <v>62</v>
+      </c>
+      <c r="O12" t="n">
+        <v>28.99491813209096</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9.94466453549523</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>36.7347886801624</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.765891472868217</v>
+      </c>
+      <c r="S12" t="n">
+        <v>14.27280939476061</v>
+      </c>
+      <c r="T12" t="n">
+        <v>11.76372201191706</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>318</v>
+      </c>
+      <c r="C13" t="n">
+        <v>400</v>
+      </c>
+      <c r="D13" t="n">
+        <v>153</v>
+      </c>
+      <c r="E13" t="n">
+        <v>174</v>
+      </c>
+      <c r="F13" t="n">
+        <v>96</v>
+      </c>
+      <c r="G13" t="n">
+        <v>145</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>338</v>
+      </c>
+      <c r="J13" t="n">
+        <v>55</v>
+      </c>
+      <c r="K13" t="n">
+        <v>610</v>
+      </c>
+      <c r="L13" t="n">
+        <v>48</v>
+      </c>
+      <c r="M13" t="n">
+        <v>172</v>
+      </c>
+      <c r="N13" t="n">
+        <v>64</v>
+      </c>
+      <c r="O13" t="n">
+        <v>29.7043397467263</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6.610271257133074</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>25.41934675950107</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.853146853146853</v>
+      </c>
+      <c r="S13" t="n">
+        <v>14.97757847533632</v>
+      </c>
+      <c r="T13" t="n">
+        <v>12.12117618821405</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>317</v>
+      </c>
+      <c r="C14" t="n">
+        <v>396</v>
+      </c>
+      <c r="D14" t="n">
+        <v>139</v>
+      </c>
+      <c r="E14" t="n">
+        <v>184</v>
+      </c>
+      <c r="F14" t="n">
+        <v>98</v>
+      </c>
+      <c r="G14" t="n">
+        <v>151</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>354</v>
+      </c>
+      <c r="J14" t="n">
+        <v>55</v>
+      </c>
+      <c r="K14" t="n">
+        <v>587</v>
+      </c>
+      <c r="L14" t="n">
+        <v>44</v>
+      </c>
+      <c r="M14" t="n">
+        <v>182</v>
+      </c>
+      <c r="N14" t="n">
+        <v>64</v>
+      </c>
+      <c r="O14" t="n">
+        <v>29.37324003201561</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8.704255188920021</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>23.17696682531042</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.887247278382582</v>
+      </c>
+      <c r="S14" t="n">
+        <v>14.76449275362319</v>
+      </c>
+      <c r="T14" t="n">
+        <v>13.10576075856192</v>
       </c>
     </row>
   </sheetData>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1362,6 +1362,134 @@
         <v>13.10576075856192</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>318</v>
+      </c>
+      <c r="C15" t="n">
+        <v>407</v>
+      </c>
+      <c r="D15" t="n">
+        <v>136</v>
+      </c>
+      <c r="E15" t="n">
+        <v>183</v>
+      </c>
+      <c r="F15" t="n">
+        <v>93</v>
+      </c>
+      <c r="G15" t="n">
+        <v>140</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>340</v>
+      </c>
+      <c r="J15" t="n">
+        <v>49</v>
+      </c>
+      <c r="K15" t="n">
+        <v>602</v>
+      </c>
+      <c r="L15" t="n">
+        <v>43</v>
+      </c>
+      <c r="M15" t="n">
+        <v>177</v>
+      </c>
+      <c r="N15" t="n">
+        <v>68</v>
+      </c>
+      <c r="O15" t="n">
+        <v>29.7837119639804</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.21130224993306</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>32.70702983106268</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.883502736512901</v>
+      </c>
+      <c r="S15" t="n">
+        <v>14.51905626134301</v>
+      </c>
+      <c r="T15" t="n">
+        <v>13.48123371732298</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>324</v>
+      </c>
+      <c r="C16" t="n">
+        <v>396</v>
+      </c>
+      <c r="D16" t="n">
+        <v>132</v>
+      </c>
+      <c r="E16" t="n">
+        <v>178</v>
+      </c>
+      <c r="F16" t="n">
+        <v>99</v>
+      </c>
+      <c r="G16" t="n">
+        <v>148</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>335</v>
+      </c>
+      <c r="J16" t="n">
+        <v>49</v>
+      </c>
+      <c r="K16" t="n">
+        <v>599</v>
+      </c>
+      <c r="L16" t="n">
+        <v>41</v>
+      </c>
+      <c r="M16" t="n">
+        <v>174</v>
+      </c>
+      <c r="N16" t="n">
+        <v>81</v>
+      </c>
+      <c r="O16" t="n">
+        <v>28.16304848299471</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8.801044608858223</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>26.26641031769872</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.890539483971853</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15.47511312217195</v>
+      </c>
+      <c r="T16" t="n">
+        <v>13.35183209230285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,6 +1490,134 @@
         <v>13.35183209230285</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>330</v>
+      </c>
+      <c r="C17" t="n">
+        <v>390</v>
+      </c>
+      <c r="D17" t="n">
+        <v>125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>177</v>
+      </c>
+      <c r="F17" t="n">
+        <v>105</v>
+      </c>
+      <c r="G17" t="n">
+        <v>148</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>330</v>
+      </c>
+      <c r="J17" t="n">
+        <v>53</v>
+      </c>
+      <c r="K17" t="n">
+        <v>601</v>
+      </c>
+      <c r="L17" t="n">
+        <v>44</v>
+      </c>
+      <c r="M17" t="n">
+        <v>174</v>
+      </c>
+      <c r="N17" t="n">
+        <v>75</v>
+      </c>
+      <c r="O17" t="n">
+        <v>29.23291841130359</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8.719340390481104</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>24.8724901613697</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.763508222396241</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15.59383499546691</v>
+      </c>
+      <c r="T17" t="n">
+        <v>13.5865164347737</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>332</v>
+      </c>
+      <c r="C18" t="n">
+        <v>396</v>
+      </c>
+      <c r="D18" t="n">
+        <v>119</v>
+      </c>
+      <c r="E18" t="n">
+        <v>175</v>
+      </c>
+      <c r="F18" t="n">
+        <v>105</v>
+      </c>
+      <c r="G18" t="n">
+        <v>147</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>330</v>
+      </c>
+      <c r="J18" t="n">
+        <v>53</v>
+      </c>
+      <c r="K18" t="n">
+        <v>594</v>
+      </c>
+      <c r="L18" t="n">
+        <v>45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>174</v>
+      </c>
+      <c r="N18" t="n">
+        <v>80</v>
+      </c>
+      <c r="O18" t="n">
+        <v>29.14064387391976</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.944172299236127</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>23.50265176159096</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.763322884012539</v>
+      </c>
+      <c r="S18" t="n">
+        <v>16.1524500907441</v>
+      </c>
+      <c r="T18" t="n">
+        <v>14.2055432223378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,6 +1618,134 @@
         <v>14.2055432223378</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>250</v>
+      </c>
+      <c r="C19" t="n">
+        <v>412</v>
+      </c>
+      <c r="D19" t="n">
+        <v>101</v>
+      </c>
+      <c r="E19" t="n">
+        <v>259</v>
+      </c>
+      <c r="F19" t="n">
+        <v>105</v>
+      </c>
+      <c r="G19" t="n">
+        <v>145</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>250</v>
+      </c>
+      <c r="J19" t="n">
+        <v>52</v>
+      </c>
+      <c r="K19" t="n">
+        <v>590</v>
+      </c>
+      <c r="L19" t="n">
+        <v>46</v>
+      </c>
+      <c r="M19" t="n">
+        <v>258</v>
+      </c>
+      <c r="N19" t="n">
+        <v>78</v>
+      </c>
+      <c r="O19" t="n">
+        <v>28.75933590106543</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9.681523334462179</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>22.77609184534158</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.770015698587127</v>
+      </c>
+      <c r="S19" t="n">
+        <v>17.32283464566929</v>
+      </c>
+      <c r="T19" t="n">
+        <v>21.3869037590242</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>306</v>
+      </c>
+      <c r="C20" t="n">
+        <v>408</v>
+      </c>
+      <c r="D20" t="n">
+        <v>105</v>
+      </c>
+      <c r="E20" t="n">
+        <v>142</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83</v>
+      </c>
+      <c r="G20" t="n">
+        <v>123</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>219</v>
+      </c>
+      <c r="J20" t="n">
+        <v>60</v>
+      </c>
+      <c r="K20" t="n">
+        <v>621</v>
+      </c>
+      <c r="L20" t="n">
+        <v>56</v>
+      </c>
+      <c r="M20" t="n">
+        <v>139</v>
+      </c>
+      <c r="N20" t="n">
+        <v>74</v>
+      </c>
+      <c r="O20" t="n">
+        <v>30.02003657014565</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8.605188846036087</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>25.30764487991961</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.751924721984602</v>
+      </c>
+      <c r="S20" t="n">
+        <v>18.44660194174757</v>
+      </c>
+      <c r="T20" t="n">
+        <v>15.87600367207367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,6 +1746,70 @@
         <v>15.87600367207367</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>300</v>
+      </c>
+      <c r="C21" t="n">
+        <v>407</v>
+      </c>
+      <c r="D21" t="n">
+        <v>97</v>
+      </c>
+      <c r="E21" t="n">
+        <v>145</v>
+      </c>
+      <c r="F21" t="n">
+        <v>86</v>
+      </c>
+      <c r="G21" t="n">
+        <v>131</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>238</v>
+      </c>
+      <c r="J21" t="n">
+        <v>60</v>
+      </c>
+      <c r="K21" t="n">
+        <v>603</v>
+      </c>
+      <c r="L21" t="n">
+        <v>55</v>
+      </c>
+      <c r="M21" t="n">
+        <v>143</v>
+      </c>
+      <c r="N21" t="n">
+        <v>70</v>
+      </c>
+      <c r="O21" t="n">
+        <v>29.8684903162216</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8.465454026186878</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>22.5963381290903</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.801539777587682</v>
+      </c>
+      <c r="S21" t="n">
+        <v>18.03118908382066</v>
+      </c>
+      <c r="T21" t="n">
+        <v>16.93100317806268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,6 +1810,518 @@
         <v>16.93100317806268</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>275</v>
+      </c>
+      <c r="C22" t="n">
+        <v>409</v>
+      </c>
+      <c r="D22" t="n">
+        <v>94</v>
+      </c>
+      <c r="E22" t="n">
+        <v>169</v>
+      </c>
+      <c r="F22" t="n">
+        <v>90</v>
+      </c>
+      <c r="G22" t="n">
+        <v>129</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>217</v>
+      </c>
+      <c r="J22" t="n">
+        <v>61</v>
+      </c>
+      <c r="K22" t="n">
+        <v>605</v>
+      </c>
+      <c r="L22" t="n">
+        <v>52</v>
+      </c>
+      <c r="M22" t="n">
+        <v>167</v>
+      </c>
+      <c r="N22" t="n">
+        <v>67</v>
+      </c>
+      <c r="O22" t="n">
+        <v>29.86964894330953</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7.364662165144296</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>21.92677105386581</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.828913601368691</v>
+      </c>
+      <c r="S22" t="n">
+        <v>17.96407185628743</v>
+      </c>
+      <c r="T22" t="n">
+        <v>18.52254800652937</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>277</v>
+      </c>
+      <c r="C23" t="n">
+        <v>413</v>
+      </c>
+      <c r="D23" t="n">
+        <v>95</v>
+      </c>
+      <c r="E23" t="n">
+        <v>166</v>
+      </c>
+      <c r="F23" t="n">
+        <v>86</v>
+      </c>
+      <c r="G23" t="n">
+        <v>121</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>225</v>
+      </c>
+      <c r="J23" t="n">
+        <v>59</v>
+      </c>
+      <c r="K23" t="n">
+        <v>599</v>
+      </c>
+      <c r="L23" t="n">
+        <v>46</v>
+      </c>
+      <c r="M23" t="n">
+        <v>164</v>
+      </c>
+      <c r="N23" t="n">
+        <v>68</v>
+      </c>
+      <c r="O23" t="n">
+        <v>30.48216791225203</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7.482988071929321</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>21.4471858556331</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.824289405684755</v>
+      </c>
+      <c r="S23" t="n">
+        <v>17.35205616850552</v>
+      </c>
+      <c r="T23" t="n">
+        <v>18.23139147747118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>280</v>
+      </c>
+      <c r="C24" t="n">
+        <v>385</v>
+      </c>
+      <c r="D24" t="n">
+        <v>90</v>
+      </c>
+      <c r="E24" t="n">
+        <v>169</v>
+      </c>
+      <c r="F24" t="n">
+        <v>112</v>
+      </c>
+      <c r="G24" t="n">
+        <v>118</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>221</v>
+      </c>
+      <c r="J24" t="n">
+        <v>52</v>
+      </c>
+      <c r="K24" t="n">
+        <v>603</v>
+      </c>
+      <c r="L24" t="n">
+        <v>50</v>
+      </c>
+      <c r="M24" t="n">
+        <v>167</v>
+      </c>
+      <c r="N24" t="n">
+        <v>64</v>
+      </c>
+      <c r="O24" t="n">
+        <v>31.5548156810861</v>
+      </c>
+      <c r="P24" t="n">
+        <v>8.071533532177762</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>20.59476994960928</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.831460674157303</v>
+      </c>
+      <c r="S24" t="n">
+        <v>16.76767676767677</v>
+      </c>
+      <c r="T24" t="n">
+        <v>18.27124543132003</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>278</v>
+      </c>
+      <c r="C25" t="n">
+        <v>422</v>
+      </c>
+      <c r="D25" t="n">
+        <v>106</v>
+      </c>
+      <c r="E25" t="n">
+        <v>138</v>
+      </c>
+      <c r="F25" t="n">
+        <v>82</v>
+      </c>
+      <c r="G25" t="n">
+        <v>124</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>181</v>
+      </c>
+      <c r="J25" t="n">
+        <v>72</v>
+      </c>
+      <c r="K25" t="n">
+        <v>647</v>
+      </c>
+      <c r="L25" t="n">
+        <v>52</v>
+      </c>
+      <c r="M25" t="n">
+        <v>135</v>
+      </c>
+      <c r="N25" t="n">
+        <v>66</v>
+      </c>
+      <c r="O25" t="n">
+        <v>32.65472197535063</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.27289982779967</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>23.96411039540082</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.830875975715525</v>
+      </c>
+      <c r="S25" t="n">
+        <v>18.66404715127701</v>
+      </c>
+      <c r="T25" t="n">
+        <v>17.76713684674889</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>280</v>
+      </c>
+      <c r="C26" t="n">
+        <v>418</v>
+      </c>
+      <c r="D26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" t="n">
+        <v>144</v>
+      </c>
+      <c r="F26" t="n">
+        <v>84</v>
+      </c>
+      <c r="G26" t="n">
+        <v>123</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>192</v>
+      </c>
+      <c r="J26" t="n">
+        <v>73</v>
+      </c>
+      <c r="K26" t="n">
+        <v>631</v>
+      </c>
+      <c r="L26" t="n">
+        <v>50</v>
+      </c>
+      <c r="M26" t="n">
+        <v>142</v>
+      </c>
+      <c r="N26" t="n">
+        <v>64</v>
+      </c>
+      <c r="O26" t="n">
+        <v>31.78255689150917</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6.842522205424752</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>21.89077981479754</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.847222222222222</v>
+      </c>
+      <c r="S26" t="n">
+        <v>18.51485148514852</v>
+      </c>
+      <c r="T26" t="n">
+        <v>17.93754507824649</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>276</v>
+      </c>
+      <c r="C27" t="n">
+        <v>419</v>
+      </c>
+      <c r="D27" t="n">
+        <v>94</v>
+      </c>
+      <c r="E27" t="n">
+        <v>151</v>
+      </c>
+      <c r="F27" t="n">
+        <v>85</v>
+      </c>
+      <c r="G27" t="n">
+        <v>124</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>196</v>
+      </c>
+      <c r="J27" t="n">
+        <v>75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>614</v>
+      </c>
+      <c r="L27" t="n">
+        <v>52</v>
+      </c>
+      <c r="M27" t="n">
+        <v>147</v>
+      </c>
+      <c r="N27" t="n">
+        <v>68</v>
+      </c>
+      <c r="O27" t="n">
+        <v>32.03970403331455</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6.398924163360574</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>21.33410027811509</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.858506944444444</v>
+      </c>
+      <c r="S27" t="n">
+        <v>19.40298507462687</v>
+      </c>
+      <c r="T27" t="n">
+        <v>18.64800440422394</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>276</v>
+      </c>
+      <c r="C28" t="n">
+        <v>429</v>
+      </c>
+      <c r="D28" t="n">
+        <v>92</v>
+      </c>
+      <c r="E28" t="n">
+        <v>150</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84</v>
+      </c>
+      <c r="G28" t="n">
+        <v>121</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>179</v>
+      </c>
+      <c r="J28" t="n">
+        <v>90</v>
+      </c>
+      <c r="K28" t="n">
+        <v>616</v>
+      </c>
+      <c r="L28" t="n">
+        <v>61</v>
+      </c>
+      <c r="M28" t="n">
+        <v>145</v>
+      </c>
+      <c r="N28" t="n">
+        <v>64</v>
+      </c>
+      <c r="O28" t="n">
+        <v>32.04734003188936</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.164489607022181</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>23.39005598876582</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.856277056277056</v>
+      </c>
+      <c r="S28" t="n">
+        <v>21.28712871287129</v>
+      </c>
+      <c r="T28" t="n">
+        <v>19.1181943670999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>277</v>
+      </c>
+      <c r="C29" t="n">
+        <v>414</v>
+      </c>
+      <c r="D29" t="n">
+        <v>91</v>
+      </c>
+      <c r="E29" t="n">
+        <v>146</v>
+      </c>
+      <c r="F29" t="n">
+        <v>108</v>
+      </c>
+      <c r="G29" t="n">
+        <v>110</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>186</v>
+      </c>
+      <c r="J29" t="n">
+        <v>81</v>
+      </c>
+      <c r="K29" t="n">
+        <v>613</v>
+      </c>
+      <c r="L29" t="n">
+        <v>63</v>
+      </c>
+      <c r="M29" t="n">
+        <v>143</v>
+      </c>
+      <c r="N29" t="n">
+        <v>63</v>
+      </c>
+      <c r="O29" t="n">
+        <v>33.35623247164826</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9.401239189750267</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>21.94460048499341</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.838120104438642</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20.5765407554672</v>
+      </c>
+      <c r="T29" t="n">
+        <v>19.29023112862452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2322,6 +2322,326 @@
         <v>19.29023112862452</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>277</v>
+      </c>
+      <c r="C30" t="n">
+        <v>430</v>
+      </c>
+      <c r="D30" t="n">
+        <v>89</v>
+      </c>
+      <c r="E30" t="n">
+        <v>152</v>
+      </c>
+      <c r="F30" t="n">
+        <v>85</v>
+      </c>
+      <c r="G30" t="n">
+        <v>113</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>188</v>
+      </c>
+      <c r="J30" t="n">
+        <v>83</v>
+      </c>
+      <c r="K30" t="n">
+        <v>610</v>
+      </c>
+      <c r="L30" t="n">
+        <v>57</v>
+      </c>
+      <c r="M30" t="n">
+        <v>150</v>
+      </c>
+      <c r="N30" t="n">
+        <v>61</v>
+      </c>
+      <c r="O30" t="n">
+        <v>33.70419519817698</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7.520910485040626</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>21.45523917101126</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.859878154917319</v>
+      </c>
+      <c r="S30" t="n">
+        <v>20.12012012012012</v>
+      </c>
+      <c r="T30" t="n">
+        <v>19.2288293110835</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>279</v>
+      </c>
+      <c r="C31" t="n">
+        <v>430</v>
+      </c>
+      <c r="D31" t="n">
+        <v>87</v>
+      </c>
+      <c r="E31" t="n">
+        <v>157</v>
+      </c>
+      <c r="F31" t="n">
+        <v>85</v>
+      </c>
+      <c r="G31" t="n">
+        <v>108</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>189</v>
+      </c>
+      <c r="J31" t="n">
+        <v>87</v>
+      </c>
+      <c r="K31" t="n">
+        <v>602</v>
+      </c>
+      <c r="L31" t="n">
+        <v>58</v>
+      </c>
+      <c r="M31" t="n">
+        <v>155</v>
+      </c>
+      <c r="N31" t="n">
+        <v>58</v>
+      </c>
+      <c r="O31" t="n">
+        <v>33.12536410299386</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.839176663515842</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>20.48613075249357</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.861618798955614</v>
+      </c>
+      <c r="S31" t="n">
+        <v>20.42253521126761</v>
+      </c>
+      <c r="T31" t="n">
+        <v>19.18969182907547</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>278</v>
+      </c>
+      <c r="C32" t="n">
+        <v>428</v>
+      </c>
+      <c r="D32" t="n">
+        <v>111</v>
+      </c>
+      <c r="E32" t="n">
+        <v>157</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86</v>
+      </c>
+      <c r="G32" t="n">
+        <v>108</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>176</v>
+      </c>
+      <c r="J32" t="n">
+        <v>85</v>
+      </c>
+      <c r="K32" t="n">
+        <v>635</v>
+      </c>
+      <c r="L32" t="n">
+        <v>60</v>
+      </c>
+      <c r="M32" t="n">
+        <v>152</v>
+      </c>
+      <c r="N32" t="n">
+        <v>63</v>
+      </c>
+      <c r="O32" t="n">
+        <v>33.19424768994458</v>
+      </c>
+      <c r="P32" t="n">
+        <v>6.177498146107402</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>21.12124618977348</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.844577284372331</v>
+      </c>
+      <c r="S32" t="n">
+        <v>20.41216879293425</v>
+      </c>
+      <c r="T32" t="n">
+        <v>17.48696872514667</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>284</v>
+      </c>
+      <c r="C33" t="n">
+        <v>424</v>
+      </c>
+      <c r="D33" t="n">
+        <v>109</v>
+      </c>
+      <c r="E33" t="n">
+        <v>157</v>
+      </c>
+      <c r="F33" t="n">
+        <v>84</v>
+      </c>
+      <c r="G33" t="n">
+        <v>105</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>182</v>
+      </c>
+      <c r="J33" t="n">
+        <v>81</v>
+      </c>
+      <c r="K33" t="n">
+        <v>629</v>
+      </c>
+      <c r="L33" t="n">
+        <v>61</v>
+      </c>
+      <c r="M33" t="n">
+        <v>154</v>
+      </c>
+      <c r="N33" t="n">
+        <v>60</v>
+      </c>
+      <c r="O33" t="n">
+        <v>33.09171856512334</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7.132857592036616</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>21.18899597707716</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.854327335047129</v>
+      </c>
+      <c r="S33" t="n">
+        <v>19.94076999012833</v>
+      </c>
+      <c r="T33" t="n">
+        <v>17.09078009569351</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>277</v>
+      </c>
+      <c r="C34" t="n">
+        <v>406</v>
+      </c>
+      <c r="D34" t="n">
+        <v>104</v>
+      </c>
+      <c r="E34" t="n">
+        <v>159</v>
+      </c>
+      <c r="F34" t="n">
+        <v>117</v>
+      </c>
+      <c r="G34" t="n">
+        <v>100</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>191</v>
+      </c>
+      <c r="J34" t="n">
+        <v>71</v>
+      </c>
+      <c r="K34" t="n">
+        <v>626</v>
+      </c>
+      <c r="L34" t="n">
+        <v>68</v>
+      </c>
+      <c r="M34" t="n">
+        <v>157</v>
+      </c>
+      <c r="N34" t="n">
+        <v>54</v>
+      </c>
+      <c r="O34" t="n">
+        <v>34.7176718811822</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10.20489325192062</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>20.84268349456796</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.874035989717224</v>
+      </c>
+      <c r="S34" t="n">
+        <v>19.10891089108911</v>
+      </c>
+      <c r="T34" t="n">
+        <v>18.22541996011761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2642,6 +2642,134 @@
         <v>18.22541996011761</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>282</v>
+      </c>
+      <c r="C35" t="n">
+        <v>435</v>
+      </c>
+      <c r="D35" t="n">
+        <v>101</v>
+      </c>
+      <c r="E35" t="n">
+        <v>162</v>
+      </c>
+      <c r="F35" t="n">
+        <v>82</v>
+      </c>
+      <c r="G35" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>189</v>
+      </c>
+      <c r="J35" t="n">
+        <v>74</v>
+      </c>
+      <c r="K35" t="n">
+        <v>621</v>
+      </c>
+      <c r="L35" t="n">
+        <v>64</v>
+      </c>
+      <c r="M35" t="n">
+        <v>160</v>
+      </c>
+      <c r="N35" t="n">
+        <v>59</v>
+      </c>
+      <c r="O35" t="n">
+        <v>34.37345368438807</v>
+      </c>
+      <c r="P35" t="n">
+        <v>7.438551626217706</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>21.41508924892005</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.869751499571551</v>
+      </c>
+      <c r="S35" t="n">
+        <v>19.56305858987091</v>
+      </c>
+      <c r="T35" t="n">
+        <v>18.12470666826968</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>281</v>
+      </c>
+      <c r="C36" t="n">
+        <v>433</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>164</v>
+      </c>
+      <c r="F36" t="n">
+        <v>85</v>
+      </c>
+      <c r="G36" t="n">
+        <v>99</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>196</v>
+      </c>
+      <c r="J36" t="n">
+        <v>67</v>
+      </c>
+      <c r="K36" t="n">
+        <v>619</v>
+      </c>
+      <c r="L36" t="n">
+        <v>60</v>
+      </c>
+      <c r="M36" t="n">
+        <v>162</v>
+      </c>
+      <c r="N36" t="n">
+        <v>64</v>
+      </c>
+      <c r="O36" t="n">
+        <v>34.76039639211884</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7.16504954715893</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>21.05273677769505</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.88013698630137</v>
+      </c>
+      <c r="S36" t="n">
+        <v>18.98608349900596</v>
+      </c>
+      <c r="T36" t="n">
+        <v>18.28838537167417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2770,6 +2770,134 @@
         <v>18.28838537167417</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>290</v>
+      </c>
+      <c r="C37" t="n">
+        <v>443</v>
+      </c>
+      <c r="D37" t="n">
+        <v>92</v>
+      </c>
+      <c r="E37" t="n">
+        <v>161</v>
+      </c>
+      <c r="F37" t="n">
+        <v>88</v>
+      </c>
+      <c r="G37" t="n">
+        <v>82</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>201</v>
+      </c>
+      <c r="J37" t="n">
+        <v>62</v>
+      </c>
+      <c r="K37" t="n">
+        <v>617</v>
+      </c>
+      <c r="L37" t="n">
+        <v>49</v>
+      </c>
+      <c r="M37" t="n">
+        <v>160</v>
+      </c>
+      <c r="N37" t="n">
+        <v>74</v>
+      </c>
+      <c r="O37" t="n">
+        <v>33.97107530398748</v>
+      </c>
+      <c r="P37" t="n">
+        <v>8.954651002883697</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>21.85404749292542</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.894239036973345</v>
+      </c>
+      <c r="S37" t="n">
+        <v>18.44466600199402</v>
+      </c>
+      <c r="T37" t="n">
+        <v>18.79487367823174</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>291</v>
+      </c>
+      <c r="C38" t="n">
+        <v>416</v>
+      </c>
+      <c r="D38" t="n">
+        <v>92</v>
+      </c>
+      <c r="E38" t="n">
+        <v>152</v>
+      </c>
+      <c r="F38" t="n">
+        <v>118</v>
+      </c>
+      <c r="G38" t="n">
+        <v>85</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>193</v>
+      </c>
+      <c r="J38" t="n">
+        <v>61</v>
+      </c>
+      <c r="K38" t="n">
+        <v>626</v>
+      </c>
+      <c r="L38" t="n">
+        <v>61</v>
+      </c>
+      <c r="M38" t="n">
+        <v>151</v>
+      </c>
+      <c r="N38" t="n">
+        <v>69</v>
+      </c>
+      <c r="O38" t="n">
+        <v>35.04726711292184</v>
+      </c>
+      <c r="P38" t="n">
+        <v>9.522004907296324</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>21.59587187504038</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.893195521102498</v>
+      </c>
+      <c r="S38" t="n">
+        <v>18.91089108910891</v>
+      </c>
+      <c r="T38" t="n">
+        <v>18.88156327955374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2898,6 +2898,262 @@
         <v>18.88156327955374</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>288</v>
+      </c>
+      <c r="C39" t="n">
+        <v>447</v>
+      </c>
+      <c r="D39" t="n">
+        <v>103</v>
+      </c>
+      <c r="E39" t="n">
+        <v>150</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87</v>
+      </c>
+      <c r="G39" t="n">
+        <v>89</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>180</v>
+      </c>
+      <c r="J39" t="n">
+        <v>66</v>
+      </c>
+      <c r="K39" t="n">
+        <v>644</v>
+      </c>
+      <c r="L39" t="n">
+        <v>65</v>
+      </c>
+      <c r="M39" t="n">
+        <v>148</v>
+      </c>
+      <c r="N39" t="n">
+        <v>68</v>
+      </c>
+      <c r="O39" t="n">
+        <v>35.24568221550423</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6.821786791010772</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>22.98161041691402</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.900939368061486</v>
+      </c>
+      <c r="S39" t="n">
+        <v>19.45259042033236</v>
+      </c>
+      <c r="T39" t="n">
+        <v>18.35032109718964</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>288</v>
+      </c>
+      <c r="C40" t="n">
+        <v>452</v>
+      </c>
+      <c r="D40" t="n">
+        <v>75</v>
+      </c>
+      <c r="E40" t="n">
+        <v>146</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93</v>
+      </c>
+      <c r="G40" t="n">
+        <v>96</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>178</v>
+      </c>
+      <c r="J40" t="n">
+        <v>60</v>
+      </c>
+      <c r="K40" t="n">
+        <v>636</v>
+      </c>
+      <c r="L40" t="n">
+        <v>61</v>
+      </c>
+      <c r="M40" t="n">
+        <v>145</v>
+      </c>
+      <c r="N40" t="n">
+        <v>76</v>
+      </c>
+      <c r="O40" t="n">
+        <v>36.27314642848775</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5.612880969907351</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>22.85389412562855</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.938581314878893</v>
+      </c>
+      <c r="S40" t="n">
+        <v>19.48565776458952</v>
+      </c>
+      <c r="T40" t="n">
+        <v>20.67787237263333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>302</v>
+      </c>
+      <c r="C41" t="n">
+        <v>444</v>
+      </c>
+      <c r="D41" t="n">
+        <v>72</v>
+      </c>
+      <c r="E41" t="n">
+        <v>139</v>
+      </c>
+      <c r="F41" t="n">
+        <v>89</v>
+      </c>
+      <c r="G41" t="n">
+        <v>102</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>179</v>
+      </c>
+      <c r="J41" t="n">
+        <v>64</v>
+      </c>
+      <c r="K41" t="n">
+        <v>639</v>
+      </c>
+      <c r="L41" t="n">
+        <v>63</v>
+      </c>
+      <c r="M41" t="n">
+        <v>136</v>
+      </c>
+      <c r="N41" t="n">
+        <v>73</v>
+      </c>
+      <c r="O41" t="n">
+        <v>36.42035431961263</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4.974125055514555</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>23.49772578588827</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.961005199306759</v>
+      </c>
+      <c r="S41" t="n">
+        <v>19.64636542239685</v>
+      </c>
+      <c r="T41" t="n">
+        <v>19.8995559571802</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>308</v>
+      </c>
+      <c r="C42" t="n">
+        <v>428</v>
+      </c>
+      <c r="D42" t="n">
+        <v>69</v>
+      </c>
+      <c r="E42" t="n">
+        <v>130</v>
+      </c>
+      <c r="F42" t="n">
+        <v>123</v>
+      </c>
+      <c r="G42" t="n">
+        <v>91</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>179</v>
+      </c>
+      <c r="J42" t="n">
+        <v>60</v>
+      </c>
+      <c r="K42" t="n">
+        <v>650</v>
+      </c>
+      <c r="L42" t="n">
+        <v>64</v>
+      </c>
+      <c r="M42" t="n">
+        <v>128</v>
+      </c>
+      <c r="N42" t="n">
+        <v>74</v>
+      </c>
+      <c r="O42" t="n">
+        <v>38.11631998775663</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5.560902155850431</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>22.80197087031653</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.92987012987013</v>
+      </c>
+      <c r="S42" t="n">
+        <v>19.2794547224927</v>
+      </c>
+      <c r="T42" t="n">
+        <v>20.54575853351636</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/Динамика АЛМ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3154,6 +3154,1094 @@
         <v>20.54575853351636</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>330</v>
+      </c>
+      <c r="C43" t="n">
+        <v>407</v>
+      </c>
+      <c r="D43" t="n">
+        <v>54</v>
+      </c>
+      <c r="E43" t="n">
+        <v>134</v>
+      </c>
+      <c r="F43" t="n">
+        <v>136</v>
+      </c>
+      <c r="G43" t="n">
+        <v>82</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>176</v>
+      </c>
+      <c r="J43" t="n">
+        <v>55</v>
+      </c>
+      <c r="K43" t="n">
+        <v>649</v>
+      </c>
+      <c r="L43" t="n">
+        <v>75</v>
+      </c>
+      <c r="M43" t="n">
+        <v>131</v>
+      </c>
+      <c r="N43" t="n">
+        <v>63</v>
+      </c>
+      <c r="O43" t="n">
+        <v>38.82486638309835</v>
+      </c>
+      <c r="P43" t="n">
+        <v>7.003102323403983</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>25.3608415504085</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.959965187119234</v>
+      </c>
+      <c r="S43" t="n">
+        <v>18.95874263261296</v>
+      </c>
+      <c r="T43" t="n">
+        <v>20.54170984619635</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>328</v>
+      </c>
+      <c r="C44" t="n">
+        <v>443</v>
+      </c>
+      <c r="D44" t="n">
+        <v>68</v>
+      </c>
+      <c r="E44" t="n">
+        <v>129</v>
+      </c>
+      <c r="F44" t="n">
+        <v>98</v>
+      </c>
+      <c r="G44" t="n">
+        <v>81</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>176</v>
+      </c>
+      <c r="J44" t="n">
+        <v>59</v>
+      </c>
+      <c r="K44" t="n">
+        <v>653</v>
+      </c>
+      <c r="L44" t="n">
+        <v>79</v>
+      </c>
+      <c r="M44" t="n">
+        <v>126</v>
+      </c>
+      <c r="N44" t="n">
+        <v>60</v>
+      </c>
+      <c r="O44" t="n">
+        <v>38.56904532651313</v>
+      </c>
+      <c r="P44" t="n">
+        <v>6.719970655579965</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>23.01463239630084</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.96877710320902</v>
+      </c>
+      <c r="S44" t="n">
+        <v>19.2794547224927</v>
+      </c>
+      <c r="T44" t="n">
+        <v>19.20564771956492</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>327</v>
+      </c>
+      <c r="C45" t="n">
+        <v>413</v>
+      </c>
+      <c r="D45" t="n">
+        <v>60</v>
+      </c>
+      <c r="E45" t="n">
+        <v>128</v>
+      </c>
+      <c r="F45" t="n">
+        <v>139</v>
+      </c>
+      <c r="G45" t="n">
+        <v>81</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>184</v>
+      </c>
+      <c r="J45" t="n">
+        <v>60</v>
+      </c>
+      <c r="K45" t="n">
+        <v>642</v>
+      </c>
+      <c r="L45" t="n">
+        <v>76</v>
+      </c>
+      <c r="M45" t="n">
+        <v>125</v>
+      </c>
+      <c r="N45" t="n">
+        <v>70</v>
+      </c>
+      <c r="O45" t="n">
+        <v>38.97543253843268</v>
+      </c>
+      <c r="P45" t="n">
+        <v>9.825139976299408</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>22.53549638129511</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.051858254105445</v>
+      </c>
+      <c r="S45" t="n">
+        <v>19.96124031007752</v>
+      </c>
+      <c r="T45" t="n">
+        <v>20.68641911069007</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>341</v>
+      </c>
+      <c r="C46" t="n">
+        <v>456</v>
+      </c>
+      <c r="D46" t="n">
+        <v>84</v>
+      </c>
+      <c r="E46" t="n">
+        <v>130</v>
+      </c>
+      <c r="F46" t="n">
+        <v>89</v>
+      </c>
+      <c r="G46" t="n">
+        <v>75</v>
+      </c>
+      <c r="H46" t="n">
+        <v>11</v>
+      </c>
+      <c r="I46" t="n">
+        <v>159</v>
+      </c>
+      <c r="J46" t="n">
+        <v>47</v>
+      </c>
+      <c r="K46" t="n">
+        <v>740</v>
+      </c>
+      <c r="L46" t="n">
+        <v>59</v>
+      </c>
+      <c r="M46" t="n">
+        <v>122</v>
+      </c>
+      <c r="N46" t="n">
+        <v>59</v>
+      </c>
+      <c r="O46" t="n">
+        <v>40.23849446218463</v>
+      </c>
+      <c r="P46" t="n">
+        <v>8.465759189672987</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>28.75044956181887</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.954468802698145</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15.50751879699248</v>
+      </c>
+      <c r="T46" t="n">
+        <v>17.93921316503609</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>344</v>
+      </c>
+      <c r="C47" t="n">
+        <v>412</v>
+      </c>
+      <c r="D47" t="n">
+        <v>80</v>
+      </c>
+      <c r="E47" t="n">
+        <v>131</v>
+      </c>
+      <c r="F47" t="n">
+        <v>133</v>
+      </c>
+      <c r="G47" t="n">
+        <v>92</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+      <c r="I47" t="n">
+        <v>253</v>
+      </c>
+      <c r="J47" t="n">
+        <v>42</v>
+      </c>
+      <c r="K47" t="n">
+        <v>673</v>
+      </c>
+      <c r="L47" t="n">
+        <v>57</v>
+      </c>
+      <c r="M47" t="n">
+        <v>129</v>
+      </c>
+      <c r="N47" t="n">
+        <v>48</v>
+      </c>
+      <c r="O47" t="n">
+        <v>41.84716005272394</v>
+      </c>
+      <c r="P47" t="n">
+        <v>8.569884903663166</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>27.25733268580941</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.942595673876872</v>
+      </c>
+      <c r="S47" t="n">
+        <v>13.69990680335508</v>
+      </c>
+      <c r="T47" t="n">
+        <v>18.31362636730296</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>344</v>
+      </c>
+      <c r="C48" t="n">
+        <v>445</v>
+      </c>
+      <c r="D48" t="n">
+        <v>80</v>
+      </c>
+      <c r="E48" t="n">
+        <v>132</v>
+      </c>
+      <c r="F48" t="n">
+        <v>102</v>
+      </c>
+      <c r="G48" t="n">
+        <v>95</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>254</v>
+      </c>
+      <c r="J48" t="n">
+        <v>44</v>
+      </c>
+      <c r="K48" t="n">
+        <v>669</v>
+      </c>
+      <c r="L48" t="n">
+        <v>58</v>
+      </c>
+      <c r="M48" t="n">
+        <v>130</v>
+      </c>
+      <c r="N48" t="n">
+        <v>52</v>
+      </c>
+      <c r="O48" t="n">
+        <v>41.75702574166736</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5.739785170794396</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>28.40832724741658</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.943661971830986</v>
+      </c>
+      <c r="S48" t="n">
+        <v>14.29897864438254</v>
+      </c>
+      <c r="T48" t="n">
+        <v>18.18135114637525</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>334</v>
+      </c>
+      <c r="C49" t="n">
+        <v>453</v>
+      </c>
+      <c r="D49" t="n">
+        <v>83</v>
+      </c>
+      <c r="E49" t="n">
+        <v>131</v>
+      </c>
+      <c r="F49" t="n">
+        <v>103</v>
+      </c>
+      <c r="G49" t="n">
+        <v>92</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+      <c r="I49" t="n">
+        <v>270</v>
+      </c>
+      <c r="J49" t="n">
+        <v>42</v>
+      </c>
+      <c r="K49" t="n">
+        <v>653</v>
+      </c>
+      <c r="L49" t="n">
+        <v>48</v>
+      </c>
+      <c r="M49" t="n">
+        <v>130</v>
+      </c>
+      <c r="N49" t="n">
+        <v>63</v>
+      </c>
+      <c r="O49" t="n">
+        <v>41.99474423807745</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6.148685522937993</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>24.76173709337985</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.977611940298508</v>
+      </c>
+      <c r="S49" t="n">
+        <v>14.21933085501859</v>
+      </c>
+      <c r="T49" t="n">
+        <v>18.68402897708211</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>337</v>
+      </c>
+      <c r="C50" t="n">
+        <v>439</v>
+      </c>
+      <c r="D50" t="n">
+        <v>98</v>
+      </c>
+      <c r="E50" t="n">
+        <v>140</v>
+      </c>
+      <c r="F50" t="n">
+        <v>103</v>
+      </c>
+      <c r="G50" t="n">
+        <v>98</v>
+      </c>
+      <c r="H50" t="n">
+        <v>11</v>
+      </c>
+      <c r="I50" t="n">
+        <v>240</v>
+      </c>
+      <c r="J50" t="n">
+        <v>43</v>
+      </c>
+      <c r="K50" t="n">
+        <v>686</v>
+      </c>
+      <c r="L50" t="n">
+        <v>55</v>
+      </c>
+      <c r="M50" t="n">
+        <v>138</v>
+      </c>
+      <c r="N50" t="n">
+        <v>64</v>
+      </c>
+      <c r="O50" t="n">
+        <v>42.5780301333205</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5.840935967282208</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>27.08389974003264</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.955954323001631</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14.88970588235294</v>
+      </c>
+      <c r="T50" t="n">
+        <v>17.0721987775331</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>330</v>
+      </c>
+      <c r="C51" t="n">
+        <v>408</v>
+      </c>
+      <c r="D51" t="n">
+        <v>95</v>
+      </c>
+      <c r="E51" t="n">
+        <v>137</v>
+      </c>
+      <c r="F51" t="n">
+        <v>140</v>
+      </c>
+      <c r="G51" t="n">
+        <v>100</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14</v>
+      </c>
+      <c r="I51" t="n">
+        <v>251</v>
+      </c>
+      <c r="J51" t="n">
+        <v>39</v>
+      </c>
+      <c r="K51" t="n">
+        <v>675</v>
+      </c>
+      <c r="L51" t="n">
+        <v>55</v>
+      </c>
+      <c r="M51" t="n">
+        <v>135</v>
+      </c>
+      <c r="N51" t="n">
+        <v>69</v>
+      </c>
+      <c r="O51" t="n">
+        <v>44.23301024356424</v>
+      </c>
+      <c r="P51" t="n">
+        <v>6.508529145910426</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>25.90093148429436</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.988562091503268</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14.96786042240588</v>
+      </c>
+      <c r="T51" t="n">
+        <v>18.05183517647648</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>331</v>
+      </c>
+      <c r="C52" t="n">
+        <v>452</v>
+      </c>
+      <c r="D52" t="n">
+        <v>92</v>
+      </c>
+      <c r="E52" t="n">
+        <v>134</v>
+      </c>
+      <c r="F52" t="n">
+        <v>99</v>
+      </c>
+      <c r="G52" t="n">
+        <v>99</v>
+      </c>
+      <c r="H52" t="n">
+        <v>13</v>
+      </c>
+      <c r="I52" t="n">
+        <v>255</v>
+      </c>
+      <c r="J52" t="n">
+        <v>38</v>
+      </c>
+      <c r="K52" t="n">
+        <v>671</v>
+      </c>
+      <c r="L52" t="n">
+        <v>55</v>
+      </c>
+      <c r="M52" t="n">
+        <v>132</v>
+      </c>
+      <c r="N52" t="n">
+        <v>69</v>
+      </c>
+      <c r="O52" t="n">
+        <v>44.14757447532469</v>
+      </c>
+      <c r="P52" t="n">
+        <v>6.26807363831036</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>27.15393832923883</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.00983606557377</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14.88970588235294</v>
+      </c>
+      <c r="T52" t="n">
+        <v>18.1799858654698</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>335</v>
+      </c>
+      <c r="C53" t="n">
+        <v>435</v>
+      </c>
+      <c r="D53" t="n">
+        <v>77</v>
+      </c>
+      <c r="E53" t="n">
+        <v>148</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>108</v>
+      </c>
+      <c r="H53" t="n">
+        <v>16</v>
+      </c>
+      <c r="I53" t="n">
+        <v>260</v>
+      </c>
+      <c r="J53" t="n">
+        <v>34</v>
+      </c>
+      <c r="K53" t="n">
+        <v>652</v>
+      </c>
+      <c r="L53" t="n">
+        <v>55</v>
+      </c>
+      <c r="M53" t="n">
+        <v>147</v>
+      </c>
+      <c r="N53" t="n">
+        <v>71</v>
+      </c>
+      <c r="O53" t="n">
+        <v>43.82910976343785</v>
+      </c>
+      <c r="P53" t="n">
+        <v>6.872589291637978</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>25.65782492724013</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.054142739950779</v>
+      </c>
+      <c r="S53" t="n">
+        <v>14.92537313432836</v>
+      </c>
+      <c r="T53" t="n">
+        <v>18.61480870528318</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>328</v>
+      </c>
+      <c r="C54" t="n">
+        <v>442</v>
+      </c>
+      <c r="D54" t="n">
+        <v>75</v>
+      </c>
+      <c r="E54" t="n">
+        <v>153</v>
+      </c>
+      <c r="F54" t="n">
+        <v>104</v>
+      </c>
+      <c r="G54" t="n">
+        <v>104</v>
+      </c>
+      <c r="H54" t="n">
+        <v>15</v>
+      </c>
+      <c r="I54" t="n">
+        <v>265</v>
+      </c>
+      <c r="J54" t="n">
+        <v>37</v>
+      </c>
+      <c r="K54" t="n">
+        <v>648</v>
+      </c>
+      <c r="L54" t="n">
+        <v>54</v>
+      </c>
+      <c r="M54" t="n">
+        <v>148</v>
+      </c>
+      <c r="N54" t="n">
+        <v>69</v>
+      </c>
+      <c r="O54" t="n">
+        <v>44.05626560952382</v>
+      </c>
+      <c r="P54" t="n">
+        <v>7.921989607331836</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>25.40118710496095</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.069615069615069</v>
+      </c>
+      <c r="S54" t="n">
+        <v>14.91146318732526</v>
+      </c>
+      <c r="T54" t="n">
+        <v>19.30990664062544</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>340</v>
+      </c>
+      <c r="C55" t="n">
+        <v>402</v>
+      </c>
+      <c r="D55" t="n">
+        <v>69</v>
+      </c>
+      <c r="E55" t="n">
+        <v>135</v>
+      </c>
+      <c r="F55" t="n">
+        <v>138</v>
+      </c>
+      <c r="G55" t="n">
+        <v>109</v>
+      </c>
+      <c r="H55" t="n">
+        <v>16</v>
+      </c>
+      <c r="I55" t="n">
+        <v>261</v>
+      </c>
+      <c r="J55" t="n">
+        <v>35</v>
+      </c>
+      <c r="K55" t="n">
+        <v>652</v>
+      </c>
+      <c r="L55" t="n">
+        <v>55</v>
+      </c>
+      <c r="M55" t="n">
+        <v>133</v>
+      </c>
+      <c r="N55" t="n">
+        <v>73</v>
+      </c>
+      <c r="O55" t="n">
+        <v>45.4954369755696</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3.518761763461146</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>22.43026418974965</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.101736972704715</v>
+      </c>
+      <c r="S55" t="n">
+        <v>15.14869888475836</v>
+      </c>
+      <c r="T55" t="n">
+        <v>19.58123757337191</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>339</v>
+      </c>
+      <c r="C56" t="n">
+        <v>406</v>
+      </c>
+      <c r="D56" t="n">
+        <v>68</v>
+      </c>
+      <c r="E56" t="n">
+        <v>134</v>
+      </c>
+      <c r="F56" t="n">
+        <v>136</v>
+      </c>
+      <c r="G56" t="n">
+        <v>107</v>
+      </c>
+      <c r="H56" t="n">
+        <v>16</v>
+      </c>
+      <c r="I56" t="n">
+        <v>270</v>
+      </c>
+      <c r="J56" t="n">
+        <v>35</v>
+      </c>
+      <c r="K56" t="n">
+        <v>643</v>
+      </c>
+      <c r="L56" t="n">
+        <v>52</v>
+      </c>
+      <c r="M56" t="n">
+        <v>132</v>
+      </c>
+      <c r="N56" t="n">
+        <v>74</v>
+      </c>
+      <c r="O56" t="n">
+        <v>45.11357580677831</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5.191466228767291</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>22.41514236228387</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.118573797678275</v>
+      </c>
+      <c r="S56" t="n">
+        <v>14.99068901303538</v>
+      </c>
+      <c r="T56" t="n">
+        <v>19.71711508915715</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>341</v>
+      </c>
+      <c r="C57" t="n">
+        <v>420</v>
+      </c>
+      <c r="D57" t="n">
+        <v>68</v>
+      </c>
+      <c r="E57" t="n">
+        <v>127</v>
+      </c>
+      <c r="F57" t="n">
+        <v>120</v>
+      </c>
+      <c r="G57" t="n">
+        <v>113</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17</v>
+      </c>
+      <c r="I57" t="n">
+        <v>279</v>
+      </c>
+      <c r="J57" t="n">
+        <v>24</v>
+      </c>
+      <c r="K57" t="n">
+        <v>646</v>
+      </c>
+      <c r="L57" t="n">
+        <v>54</v>
+      </c>
+      <c r="M57" t="n">
+        <v>122</v>
+      </c>
+      <c r="N57" t="n">
+        <v>81</v>
+      </c>
+      <c r="O57" t="n">
+        <v>45.46490381230085</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5.593427054744249</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>23.62524580624335</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.118573797678275</v>
+      </c>
+      <c r="S57" t="n">
+        <v>14.66789667896679</v>
+      </c>
+      <c r="T57" t="n">
+        <v>19.56910973885944</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>336</v>
+      </c>
+      <c r="C58" t="n">
+        <v>419</v>
+      </c>
+      <c r="D58" t="n">
+        <v>70</v>
+      </c>
+      <c r="E58" t="n">
+        <v>131</v>
+      </c>
+      <c r="F58" t="n">
+        <v>121</v>
+      </c>
+      <c r="G58" t="n">
+        <v>113</v>
+      </c>
+      <c r="H58" t="n">
+        <v>16</v>
+      </c>
+      <c r="I58" t="n">
+        <v>286</v>
+      </c>
+      <c r="J58" t="n">
+        <v>25</v>
+      </c>
+      <c r="K58" t="n">
+        <v>643</v>
+      </c>
+      <c r="L58" t="n">
+        <v>44</v>
+      </c>
+      <c r="M58" t="n">
+        <v>127</v>
+      </c>
+      <c r="N58" t="n">
+        <v>81</v>
+      </c>
+      <c r="O58" t="n">
+        <v>44.88138694361925</v>
+      </c>
+      <c r="P58" t="n">
+        <v>6.894291937447652</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>23.54852146457386</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.164179104477612</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13.9017608897127</v>
+      </c>
+      <c r="T58" t="n">
+        <v>19.54260166168706</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>346</v>
+      </c>
+      <c r="C59" t="n">
+        <v>403</v>
+      </c>
+      <c r="D59" t="n">
+        <v>68</v>
+      </c>
+      <c r="E59" t="n">
+        <v>126</v>
+      </c>
+      <c r="F59" t="n">
+        <v>132</v>
+      </c>
+      <c r="G59" t="n">
+        <v>109</v>
+      </c>
+      <c r="H59" t="n">
+        <v>15</v>
+      </c>
+      <c r="I59" t="n">
+        <v>285</v>
+      </c>
+      <c r="J59" t="n">
+        <v>27</v>
+      </c>
+      <c r="K59" t="n">
+        <v>638</v>
+      </c>
+      <c r="L59" t="n">
+        <v>39</v>
+      </c>
+      <c r="M59" t="n">
+        <v>123</v>
+      </c>
+      <c r="N59" t="n">
+        <v>87</v>
+      </c>
+      <c r="O59" t="n">
+        <v>48.82929584722304</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5.886005271171414</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>23.6447128338283</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.144286905754796</v>
+      </c>
+      <c r="S59" t="n">
+        <v>14.21933085501859</v>
+      </c>
+      <c r="T59" t="n">
+        <v>19.24305623649392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
